--- a/docs/qr.xlsx
+++ b/docs/qr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="264">
   <si>
     <t>Path</t>
   </si>
@@ -391,9 +391,6 @@
     <t>Supports traceability of responsibility for the action and allows linkage of an action to the recommendations acted upon.</t>
   </si>
   <si>
-    <t>New element in R3</t>
-  </si>
-  <si>
     <t>.outboundRelationship[typeCode=FLFS].target</t>
   </si>
   <si>
@@ -413,9 +410,6 @@
     <t>Composition of questionnaire responses will be handled by the parent questionnaire having answers that reference the child questionnaire.  For relationships to referrals, and other types of requests, use basedOn.</t>
   </si>
   <si>
-    <t>QuestionnaireResponse.partOf</t>
-  </si>
-  <si>
     <t>.inboundRelationship[typeCode=COMP].source[moodCode=EVN]</t>
   </si>
   <si>
@@ -426,7 +420,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Questionnaire]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/q]]}
 </t>
   </si>
   <si>
@@ -482,265 +476,269 @@
 Focus</t>
   </si>
   <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+</t>
+  </si>
+  <si>
+    <t>The subject of the questions</t>
+  </si>
+  <si>
+    <t>The subject of the questionnaire response.  This could be a patient, organization, practitioner, device, etc.  This is who/what the answers apply to, but is not necessarily the source of information.</t>
+  </si>
+  <si>
+    <t>If the Questionnaire declared a subjectType, the resource pointed to by this element must be an instance of one of the listed types.</t>
+  </si>
+  <si>
+    <t>Allows linking the answers to the individual the answers describe.  May also affect access control.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+</t>
+  </si>
+  <si>
+    <t>Encounter or Episode during which questionnaire was completed</t>
+  </si>
+  <si>
+    <t>The encounter or episode of care with primary association to the questionnaire response.</t>
+  </si>
+  <si>
+    <t>A questionnaire that was initiated during an encounter but not fully completed during the encounter would still generally be associated with the encounter.</t>
+  </si>
+  <si>
+    <t>Provides context for the information that was captured.  May also affect access control.</t>
+  </si>
+  <si>
+    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.authored</t>
+  </si>
+  <si>
+    <t>Date Created
+Date publishedDate IssuedDate updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Date the answers were gathered</t>
+  </si>
+  <si>
+    <t>The date and/or time that this set of answers were last changed.</t>
+  </si>
+  <si>
+    <t>May be different from the lastUpdateTime of the resource itself, because that reflects when the data was known to the server, not when the data was captured.
+This element is optional to allow for systems that may not know the value, however it SHOULD be populated if possible.</t>
+  </si>
+  <si>
+    <t>Clinicians need to be able to check the date that the information in the questionnaire was collected, to derive the context of the answers.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>when.recorded</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.author</t>
+  </si>
+  <si>
+    <t>Laboratory
+ServicePractitionerDepartmentCompanyPerformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>Person who received and recorded the answers</t>
+  </si>
+  <si>
+    <t>Person who received the answers to the questions in the QuestionnaireResponse and recorded them in the system.</t>
+  </si>
+  <si>
+    <t>Mapping a subject's answers to multiple choice options and determining what to put in the textual answer is a matter of interpretation.  Authoring by device would indicate that some portion of the questionnaire had been auto-populated.</t>
+  </si>
+  <si>
+    <t>Need to know who interpreted the subject's answers to the questions in the questionnaire, and selected the appropriate options for answers.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>who.author</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner], CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+</t>
+  </si>
+  <si>
+    <t>The person who answered the questions</t>
+  </si>
+  <si>
+    <t>The person who answered the questions about the subject.</t>
+  </si>
+  <si>
+    <t>If not specified, no inference can be made about who provided the data.</t>
+  </si>
+  <si>
+    <t>When answering questions about a subject that is minor, incapable of answering or an animal, another human source may answer the questions.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=INF].role</t>
+  </si>
+  <si>
+    <t>who.source</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Groups and questions</t>
+  </si>
+  <si>
+    <t>A group or question item from the original questionnaire for which answers are provided.</t>
+  </si>
+  <si>
+    <t>Groups cannot have answers and therefore must nest directly within item. When dealing with questions, nesting must occur within each answer because some questions may have multiple answers (and the nesting occurs for each answer).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+qrs-1:Nested item can't be beneath both item and answer {(answer.exists() and item.exists()).not()}</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.group</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.linkId</t>
+  </si>
+  <si>
+    <t>Pointer to specific item from Questionnaire</t>
+  </si>
+  <si>
+    <t>The item from the Questionnaire that corresponds to this item in the QuestionnaireResponse resource.</t>
+  </si>
+  <si>
+    <t>Items can repeat in the answers, so a direct 1..1 correspondence by position may not exist - requiring correspondence by identifier.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.group.linkId, QuestionnaireResponse.group.question.linkId</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].id</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.definition</t>
+  </si>
+  <si>
+    <t>ElementDefinition - details for the item</t>
+  </si>
+  <si>
+    <t>A reference to an [ElementDefinition](elementdefinition.html) that provides the details for the item.</t>
+  </si>
+  <si>
+    <t>The ElementDefinition must be in a [StructureDefinition](structuredefinition.html) or a [DataElement](dataelement.html), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
+There is no need for this element if the item pointed to by the linkId has a definition listed.</t>
+  </si>
+  <si>
+    <t>A common pattern is to define a set of data elements, and then build multiple different questionnaires for different circumstances to gather the data. This element provides traceability to the common definition.</t>
+  </si>
+  <si>
+    <t>New element in R3</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].code</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.text</t>
+  </si>
+  <si>
+    <t>Name for group or question text</t>
+  </si>
+  <si>
+    <t>Text that is displayed above the contents of the group or as the text of the question being answered.</t>
+  </si>
+  <si>
+    <t>Allows the questionnaire response to be read without access to the questionnaire.</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.group.text. QuestionnaireResponse.group.question.text (QuestionnaireResponse.group.title (removed element in R3))</t>
+  </si>
+  <si>
+    <t>.text</t>
+  </si>
+  <si>
+    <t>QuestionnaireResponse.item.subject</t>
+  </si>
+  <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
-    <t>The subject of the questions</t>
-  </si>
-  <si>
-    <t>The subject of the questionnaire response.  This could be a patient, organization, practitioner, device, etc.  This is who/what the answers apply to, but is not necessarily the source of information.</t>
-  </si>
-  <si>
-    <t>If the Questionnaire declared a subjectType, the resource pointed to by this element must be an instance of one of the listed types.</t>
-  </si>
-  <si>
-    <t>Allows linking the answers to the individual the answers describe.  May also affect access control.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
-</t>
-  </si>
-  <si>
-    <t>Encounter or Episode during which questionnaire was completed</t>
-  </si>
-  <si>
-    <t>The encounter or episode of care with primary association to the questionnaire response.</t>
-  </si>
-  <si>
-    <t>A questionnaire that was initiated during an encounter but not fully completed during the encounter would still generally be associated with the encounter.</t>
-  </si>
-  <si>
-    <t>Provides context for the information that was captured.  May also affect access control.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.encounter</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=COMP].source[classCode&lt;=PCPR, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.authored</t>
-  </si>
-  <si>
-    <t>Date Created
-Date publishedDate IssuedDate updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Date the answers were gathered</t>
-  </si>
-  <si>
-    <t>The date and/or time that this set of answers were last changed.</t>
-  </si>
-  <si>
-    <t>May be different from the lastUpdateTime of the resource itself, because that reflects when the data was known to the server, not when the data was captured.
-This element is optional to allow for systems that may not know the value, however it SHOULD be populated if possible.</t>
-  </si>
-  <si>
-    <t>Clinicians need to be able to check the date that the information in the questionnaire was collected, to derive the context of the answers.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.author</t>
-  </si>
-  <si>
-    <t>Laboratory
-ServicePractitionerDepartmentCompanyPerformer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Device], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>Person who received and recorded the answers</t>
-  </si>
-  <si>
-    <t>Person who received the answers to the questions in the QuestionnaireResponse and recorded them in the system.</t>
-  </si>
-  <si>
-    <t>Mapping a subject's answers to multiple choice options and determining what to put in the textual answer is a matter of interpretation.  Authoring by device would indicate that some portion of the questionnaire had been auto-populated.</t>
-  </si>
-  <si>
-    <t>Need to know who interpreted the subject's answers to the questions in the questionnaire, and selected the appropriate options for answers.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
-</t>
-  </si>
-  <si>
-    <t>The person who answered the questions</t>
-  </si>
-  <si>
-    <t>The person who answered the questions about the subject.</t>
-  </si>
-  <si>
-    <t>If not specified, no inference can be made about who provided the data.</t>
-  </si>
-  <si>
-    <t>When answering questions about a subject that is minor, incapable of answering or an animal, another human source may answer the questions.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=INF].role</t>
-  </si>
-  <si>
-    <t>who.source</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Groups and questions</t>
-  </si>
-  <si>
-    <t>A group or question item from the original questionnaire for which answers are provided.</t>
-  </si>
-  <si>
-    <t>Groups cannot have answers and therefore must nest directly within item. When dealing with questions, nesting must occur within each answer because some questions may have multiple answers (and the nesting occurs for each answer).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-qrs-1:Nested item can't be beneath both item and answer {(answer.exists() and item.exists()).not()}</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.group</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.linkId</t>
-  </si>
-  <si>
-    <t>Pointer to specific item from Questionnaire</t>
-  </si>
-  <si>
-    <t>The item from the Questionnaire that corresponds to this item in the QuestionnaireResponse resource.</t>
-  </si>
-  <si>
-    <t>Items can repeat in the answers, so a direct 1..1 correspondence by position may not exist - requiring correspondence by identifier.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.group.linkId, QuestionnaireResponse.group.question.linkId</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].id</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.definition</t>
-  </si>
-  <si>
-    <t>ElementDefinition - details for the item</t>
-  </si>
-  <si>
-    <t>A reference to an [ElementDefinition](elementdefinition.html) that provides the details for the item.</t>
-  </si>
-  <si>
-    <t>The ElementDefinition must be in a [StructureDefinition](structuredefinition.html) or a [DataElement](dataelement.html), and must have a fragment identifier that identifies the specific data element by its id (Element.id). E.g. http://hl7.org/fhir/StructureDefinition/Observation#Observation.value[x].
-There is no need for this element if the item pointed to by the linkId has a definition listed.</t>
-  </si>
-  <si>
-    <t>A common pattern is to define a set of data elements, and then build multiple different questionnaires for different circumstances to gather the data. This element provides traceability to the common definition.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].code</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.text</t>
-  </si>
-  <si>
-    <t>Name for group or question text</t>
-  </si>
-  <si>
-    <t>Text that is displayed above the contents of the group or as the text of the question being answered.</t>
-  </si>
-  <si>
-    <t>Allows the questionnaire response to be read without access to the questionnaire.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.group.text. QuestionnaireResponse.group.question.text (QuestionnaireResponse.group.title (removed element in R3))</t>
-  </si>
-  <si>
-    <t>.text</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.item.subject</t>
-  </si>
-  <si>
     <t>The subject this group's answers are about</t>
   </si>
   <si>
@@ -748,9 +746,6 @@
   </si>
   <si>
     <t>Sometimes a group of answers is about a specific participant, artifact or piece of information in the patient's care or record, e.g. a specific Problem, RelatedPerson, Allergy etc.</t>
-  </si>
-  <si>
-    <t>QuestionnaireResponse.group.subject</t>
   </si>
   <si>
     <t>.participation[typeCode=SBJ].role or .outboundRelationship[typeCode=SUBJ].target</t>
@@ -790,8 +785,8 @@
     <t>QuestionnaireResponse.item.answer.value[x]</t>
   </si>
   <si>
-    <t>boolean {[]} {[]}
-decimal {[]} {[]}integer {[]} {[]}date {[]} {[]}dateTime {[]} {[]}time {[]} {[]}string {[]} {[]}uri {[]} {[]}Attachment {[]} {[]}Coding {[]} {[]}Quantity {[]} {[]}Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}</t>
+    <t>decimal {[]} {[]}
+integer {[]} {[]}date {[]} {[]}dateTime {[]} {[]}time {[]} {[]}string {[]} {[]}uri {[]} {[]}Coding {[]} {[]}Quantity {[]} {[]}</t>
   </si>
   <si>
     <t>Single-valued answer to the question</t>
@@ -2163,7 +2158,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>106</v>
       </c>
@@ -2179,7 +2174,7 @@
         <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>43</v>
@@ -2373,13 +2368,13 @@
         <v>43</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>43</v>
@@ -2387,7 +2382,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2410,16 +2405,16 @@
         <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2469,7 +2464,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
@@ -2484,35 +2479,35 @@
         <v>43</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" hidden="true">
-      <c r="A14" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>43</v>
@@ -2521,19 +2516,19 @@
         <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>43</v>
@@ -2582,7 +2577,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2597,21 +2592,21 @@
         <v>43</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2625,7 +2620,7 @@
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>52</v>
@@ -2637,16 +2632,16 @@
         <v>70</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>43</v>
@@ -2671,14 +2666,14 @@
         <v>43</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>143</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>43</v>
       </c>
@@ -2695,7 +2690,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>51</v>
@@ -2710,35 +2705,35 @@
         <v>43</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" hidden="true">
-      <c r="A16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>43</v>
@@ -2747,19 +2742,19 @@
         <v>52</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>43</v>
@@ -2808,7 +2803,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2823,21 +2818,21 @@
         <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2860,19 +2855,19 @@
         <v>52</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -2921,7 +2916,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -2936,35 +2931,35 @@
         <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>155</v>
+        <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>43</v>
@@ -2973,19 +2968,19 @@
         <v>52</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3034,7 +3029,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3049,25 +3044,25 @@
         <v>43</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3077,7 +3072,7 @@
         <v>51</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>43</v>
@@ -3086,19 +3081,19 @@
         <v>52</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>43</v>
@@ -3147,7 +3142,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3162,21 +3157,21 @@
         <v>43</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3190,7 +3185,7 @@
         <v>51</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
@@ -3199,19 +3194,19 @@
         <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>43</v>
@@ -3260,7 +3255,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3275,21 +3270,21 @@
         <v>43</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3303,7 +3298,7 @@
         <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>43</v>
@@ -3312,16 +3307,16 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3371,7 +3366,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3383,16 +3378,16 @@
         <v>43</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -3400,7 +3395,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3423,13 +3418,13 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3480,7 +3475,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3501,7 +3496,7 @@
         <v>43</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3509,7 +3504,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3538,7 +3533,7 @@
         <v>98</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>100</v>
@@ -3591,7 +3586,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3612,7 +3607,7 @@
         <v>43</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -3620,11 +3615,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3649,7 +3644,7 @@
         <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>100</v>
@@ -3702,7 +3697,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3729,9 +3724,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3745,7 +3740,7 @@
         <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>43</v>
@@ -3754,17 +3749,17 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>43</v>
@@ -3813,7 +3808,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>51</v>
@@ -3828,21 +3823,21 @@
         <v>43</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3856,7 +3851,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>43</v>
@@ -3868,16 +3863,16 @@
         <v>64</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -3926,7 +3921,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -3941,21 +3936,21 @@
         <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>219</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3969,7 +3964,7 @@
         <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>43</v>
@@ -3978,17 +3973,17 @@
         <v>43</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4037,7 +4032,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4052,13 +4047,13 @@
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4066,7 +4061,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4089,17 +4084,17 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>148</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4148,7 +4143,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4163,21 +4158,21 @@
         <v>43</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>43</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4191,7 +4186,7 @@
         <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>43</v>
@@ -4200,16 +4195,16 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4259,7 +4254,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4271,16 +4266,16 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4288,7 +4283,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4311,13 +4306,13 @@
         <v>43</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4368,7 +4363,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4389,7 +4384,7 @@
         <v>43</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -4397,7 +4392,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4426,7 +4421,7 @@
         <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>100</v>
@@ -4479,7 +4474,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4500,7 +4495,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -4508,11 +4503,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4537,7 +4532,7 @@
         <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>100</v>
@@ -4590,7 +4585,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4617,9 +4612,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4633,7 +4628,7 @@
         <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>43</v>
@@ -4642,19 +4637,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4679,14 +4674,14 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="X33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>253</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
       </c>
@@ -4703,7 +4698,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4718,21 +4713,21 @@
         <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4746,7 +4741,7 @@
         <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>43</v>
@@ -4758,14 +4753,14 @@
         <v>43</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -4814,7 +4809,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4829,21 +4824,21 @@
         <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4857,7 +4852,7 @@
         <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>43</v>
@@ -4869,14 +4864,14 @@
         <v>43</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -4925,7 +4920,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4940,13 +4935,13 @@
         <v>43</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>

--- a/docs/qr.xlsx
+++ b/docs/qr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="263">
   <si>
     <t>Path</t>
   </si>
@@ -706,9 +706,6 @@
   </si>
   <si>
     <t>A common pattern is to define a set of data elements, and then build multiple different questionnaires for different circumstances to gather the data. This element provides traceability to the common definition.</t>
-  </si>
-  <si>
-    <t>New element in R3</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=DEFN].target[classCode=OBS, moodCode=DEFN].code</t>
@@ -3835,7 +3832,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>214</v>
       </c>
@@ -3851,7 +3848,7 @@
         <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>43</v>
@@ -3936,13 +3933,13 @@
         <v>43</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -3950,7 +3947,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3976,14 +3973,14 @@
         <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4032,7 +4029,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4047,13 +4044,13 @@
         <v>43</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4061,7 +4058,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4084,17 +4081,17 @@
         <v>43</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4143,7 +4140,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4164,7 +4161,7 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4172,7 +4169,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4198,13 +4195,13 @@
         <v>188</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4254,7 +4251,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4266,16 +4263,16 @@
         <v>43</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AJ29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>43</v>
@@ -4283,7 +4280,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4392,7 +4389,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4503,7 +4500,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4614,7 +4611,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4637,19 +4634,19 @@
         <v>43</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
@@ -4674,14 +4671,14 @@
         <v>43</v>
       </c>
       <c r="W33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="X33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="X33" t="s" s="2">
+      <c r="Y33" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y33" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="Z33" t="s" s="2">
         <v>43</v>
       </c>
@@ -4698,7 +4695,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4713,13 +4710,13 @@
         <v>43</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -4727,7 +4724,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4753,14 +4750,14 @@
         <v>43</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
@@ -4809,7 +4806,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4824,10 +4821,10 @@
         <v>43</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>194</v>
@@ -4838,7 +4835,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4864,14 +4861,14 @@
         <v>43</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -4920,7 +4917,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -4935,10 +4932,10 @@
         <v>43</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>194</v>

--- a/docs/qr.xlsx
+++ b/docs/qr.xlsx
@@ -501,7 +501,7 @@
     <t>QuestionnaireResponse.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -2827,7 +2827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>153</v>
       </c>
@@ -2837,13 +2837,13 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
@@ -2928,10 +2928,10 @@
         <v>43</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>159</v>

--- a/docs/qr.xlsx
+++ b/docs/qr.xlsx
@@ -2837,7 +2837,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>51</v>
